--- a/非機能要求一覧 .xlsx
+++ b/非機能要求一覧 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7DF8CDA5-ADEC-4BDB-9C2B-2294A70FB761}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E40B81E-3652-487D-849C-CD75F87120FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -19,9 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -393,16 +391,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>人間プレイヤーと対戦できる</t>
-    <rPh sb="0" eb="2">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイセン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>対戦結果を履歴に表示する</t>
   </si>
   <si>
@@ -432,9 +420,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>反復2にて実装予定</t>
-  </si>
-  <si>
     <t>反復3にて実装予定</t>
     <rPh sb="0" eb="2">
       <t>ハンプク</t>
@@ -444,6 +429,26 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>人間プレイヤーをコンピュータープレイヤー変更しやすいように設計する</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンピュータープレイヤーと対戦できる</t>
+    <rPh sb="13" eb="15">
+      <t>タイセン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -452,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,17 +1131,17 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57" style="1" customWidth="1"/>
     <col min="6" max="256" width="3.625" style="1"/>
     <col min="257" max="257" width="1.625" style="1" customWidth="1"/>
     <col min="258" max="258" width="5.625" style="1" customWidth="1"/>
@@ -1518,14 +1523,14 @@
     <col min="16134" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="9" customHeight="1"/>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:5" ht="40.15" customHeight="1">
+    <row r="5" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
@@ -1534,8 +1539,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="9" customHeight="1"/>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +1560,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1">
+    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -1563,7 +1568,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>8</v>
@@ -1571,7 +1576,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
@@ -1579,29 +1584,29 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>38</v>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
         <v>13</v>
@@ -1609,7 +1614,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" ht="12">
+    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
       <c r="C15" s="10" t="s">
         <v>14</v>
@@ -1617,7 +1622,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1627,7 +1632,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
         <v>17</v>
@@ -1635,7 +1640,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="12">
+    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
       <c r="C18" s="10" t="s">
         <v>18</v>
@@ -1643,7 +1648,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
       <c r="C19" s="10" t="s">
         <v>19</v>
@@ -1651,7 +1656,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
@@ -1661,31 +1666,31 @@
       <c r="D20" s="15"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
         <v>24</v>
@@ -1693,7 +1698,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1703,7 +1708,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
         <v>27</v>
@@ -1711,7 +1716,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" ht="12">
+    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
         <v>28</v>
@@ -1719,7 +1724,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
@@ -1727,8 +1732,8 @@
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" ht="9" customHeight="1"/>
-    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="17"/>
     </row>
   </sheetData>
@@ -1757,7 +1762,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -2146,14 +2151,14 @@
     <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="40.15" customHeight="1">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
@@ -2165,8 +2170,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="9" customHeight="1"/>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
@@ -2177,7 +2182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2188,14 +2193,14 @@
       <c r="E8" s="18"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2206,14 +2211,14 @@
       <c r="E10" s="18"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="20"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2229,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2233,7 +2238,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
@@ -2244,7 +2249,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="24"/>
       <c r="C15" s="25" t="s">
         <v>22</v>
@@ -2257,7 +2262,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="2:6" ht="67.5" customHeight="1">
+    <row r="16" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -2272,7 +2277,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -2283,7 +2288,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="8" t="s">
         <v>27</v>
@@ -2296,8 +2301,8 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:6" ht="9" customHeight="1"/>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
@@ -2326,12 +2331,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2515,6 +2514,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2524,15 +2529,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F62961AE-59C7-47DC-97D1-CAE4A5F213F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2548,4 +2544,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/非機能要求一覧 .xlsx
+++ b/非機能要求一覧 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7DF8CDA5-ADEC-4BDB-9C2B-2294A70FB761}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C579E160-E563-4079-8F5B-7B0CB3D9DB30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -19,9 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -393,16 +391,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>人間プレイヤーと対戦できる</t>
-    <rPh sb="0" eb="2">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイセン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>対戦結果を履歴に表示する</t>
   </si>
   <si>
@@ -432,9 +420,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>反復2にて実装予定</t>
-  </si>
-  <si>
     <t>反復3にて実装予定</t>
     <rPh sb="0" eb="2">
       <t>ハンプク</t>
@@ -445,6 +430,17 @@
     <rPh sb="7" eb="9">
       <t>ヨテイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンピュータープレイヤーと対戦できる</t>
+    <rPh sb="13" eb="15">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>人間プレイヤーをコンピュータープレイヤーに変更しやすいように設計する。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -452,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,17 +1122,17 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.625" style="1" customWidth="1"/>
     <col min="6" max="256" width="3.625" style="1"/>
     <col min="257" max="257" width="1.625" style="1" customWidth="1"/>
     <col min="258" max="258" width="5.625" style="1" customWidth="1"/>
@@ -1518,14 +1514,14 @@
     <col min="16134" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="9" customHeight="1"/>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:5" ht="40.15" customHeight="1">
+    <row r="5" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
@@ -1534,8 +1530,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="9" customHeight="1"/>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
@@ -1545,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +1551,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1">
+    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -1563,7 +1559,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>8</v>
@@ -1571,7 +1567,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
@@ -1579,7 +1575,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1589,19 +1585,19 @@
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
         <v>13</v>
@@ -1609,7 +1605,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" ht="12">
+    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
       <c r="C15" s="10" t="s">
         <v>14</v>
@@ -1617,7 +1613,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1627,7 +1623,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
         <v>17</v>
@@ -1635,7 +1631,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="12">
+    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
       <c r="C18" s="10" t="s">
         <v>18</v>
@@ -1643,7 +1639,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
       <c r="C19" s="10" t="s">
         <v>19</v>
@@ -1651,7 +1647,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
@@ -1661,31 +1657,31 @@
       <c r="D20" s="15"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
         <v>24</v>
@@ -1693,7 +1689,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1703,7 +1699,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
         <v>27</v>
@@ -1711,7 +1707,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" ht="12">
+    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
         <v>28</v>
@@ -1719,7 +1715,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
@@ -1727,8 +1723,8 @@
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" ht="9" customHeight="1"/>
-    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="17"/>
     </row>
   </sheetData>
@@ -1757,7 +1753,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -2146,14 +2142,14 @@
     <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="40.15" customHeight="1">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
@@ -2165,8 +2161,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="9" customHeight="1"/>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
@@ -2177,7 +2173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2188,14 +2184,14 @@
       <c r="E8" s="18"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2206,14 +2202,14 @@
       <c r="E10" s="18"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="20"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2220,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2233,7 +2229,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
@@ -2244,7 +2240,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="24"/>
       <c r="C15" s="25" t="s">
         <v>22</v>
@@ -2257,7 +2253,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="2:6" ht="67.5" customHeight="1">
+    <row r="16" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -2272,7 +2268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -2283,7 +2279,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="8" t="s">
         <v>27</v>
@@ -2296,8 +2292,8 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:6" ht="9" customHeight="1"/>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
@@ -2326,12 +2322,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2515,6 +2505,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2524,15 +2520,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F62961AE-59C7-47DC-97D1-CAE4A5F213F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2548,4 +2535,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/非機能要求一覧 .xlsx
+++ b/非機能要求一覧 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C579E160-E563-4079-8F5B-7B0CB3D9DB30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55FBB97-A17B-4EE9-B464-87C8F64BB697}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -391,56 +391,28 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>対戦結果を履歴に表示する</t>
-  </si>
-  <si>
-    <t>結果と履歴をファイルに出力する</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュツリョク</t>
+    <t>結果や履歴を永続しておきたい</t>
+    <rPh sb="6" eb="8">
+      <t>エイゾク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>反復2にて実装予定</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>反復3にて実装予定</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>コンピュータープレイヤーと対戦できる</t>
+    <t>コンピュータープレイヤーと対戦したい</t>
     <rPh sb="13" eb="15">
       <t>タイセン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>人間プレイヤーをコンピュータープレイヤーに変更しやすいように設計する。</t>
+    <t>反復3にて実装予定（方法：ファイルに出力する）</t>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>人間プレイヤーをコンピュータープレイヤーに変更しやすいように設計する</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1122,8 +1094,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1591,10 +1563,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1674,12 +1646,8 @@
       <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
@@ -2313,12 +2281,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2506,15 +2471,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2538,10 +2507,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/非機能要求一覧 .xlsx
+++ b/非機能要求一覧 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55FBB97-A17B-4EE9-B464-87C8F64BB697}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA0E789-2B97-49FE-A567-5ED13B02239B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>人間プレイヤーをコンピュータープレイヤーに変更しやすいように設計する</t>
+    <t>反復3にて実装予定（人間プレイヤーをコンピュータープレイヤーに変更しやすいように設計する）</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1094,8 +1094,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1104,7 +1104,7 @@
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="72.875" style="1" customWidth="1"/>
     <col min="6" max="256" width="3.625" style="1"/>
     <col min="257" max="257" width="1.625" style="1" customWidth="1"/>
     <col min="258" max="258" width="5.625" style="1" customWidth="1"/>
@@ -2287,6 +2287,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2470,15 +2479,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
@@ -2489,6 +2489,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F62961AE-59C7-47DC-97D1-CAE4A5F213F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2504,12 +2512,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/非機能要求一覧 .xlsx
+++ b/非機能要求一覧 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA0E789-2B97-49FE-A567-5ED13B02239B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9B788-9B54-46B3-A4B5-CDE002A1879F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>反復3にて実装予定（人間プレイヤーをコンピュータープレイヤーに変更しやすいように設計する）</t>
+    <t>反復2にて実装予定（人間プレイヤーをコンピュータープレイヤーに変更しやすいように設計する）</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1094,8 +1094,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2287,15 +2287,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2479,6 +2470,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
@@ -2489,14 +2489,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F62961AE-59C7-47DC-97D1-CAE4A5F213F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2512,4 +2504,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/非機能要求一覧 .xlsx
+++ b/非機能要求一覧 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9B788-9B54-46B3-A4B5-CDE002A1879F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23445919-0080-4507-8993-98D9D7270541}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,14 +405,20 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>反復3にて実装予定（方法：ファイルに出力する）</t>
-    <rPh sb="10" eb="12">
-      <t>ホウホウ</t>
-    </rPh>
+    <t>反復2にて実装予定（人間プレイヤーをコンピュータープレイヤーに変更しやすいように設計する）</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>反復2にて実装予定（人間プレイヤーをコンピュータープレイヤーに変更しやすいように設計する）</t>
+    <t>今回は、実装致しません。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イタ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1094,8 +1100,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1566,7 +1572,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1638,7 +1644,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -2287,6 +2293,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2470,15 +2485,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
@@ -2489,6 +2495,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F62961AE-59C7-47DC-97D1-CAE4A5F213F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2504,12 +2518,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/非機能要求一覧 .xlsx
+++ b/非機能要求一覧 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23445919-0080-4507-8993-98D9D7270541}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7134E0FE-DE22-452C-8737-6A0D925E239B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2293,15 +2293,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2485,6 +2476,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
@@ -2495,14 +2495,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F62961AE-59C7-47DC-97D1-CAE4A5F213F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2518,4 +2510,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>